--- a/results/data/CG2.4.xlsx
+++ b/results/data/CG2.4.xlsx
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7771.034000000001</v>
+        <v>7771.034000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>928523.1649999988</v>
+        <v>928523.1649999979</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CG2.4.xlsx
+++ b/results/data/CG2.4.xlsx
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7771.034000000002</v>
+        <v>4419.596</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>928523.1649999979</v>
+        <v>919818.128999998</v>
       </c>
     </row>
   </sheetData>
